--- a/Lab13/chronotimer_test_plan_hart.xlsx
+++ b/Lab13/chronotimer_test_plan_hart.xlsx
@@ -10,7 +10,6 @@
   <sheets>
     <sheet name="Test Plan" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Test Cases Test Plan ID 1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Test Cases Test Plan ID 2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t xml:space="preserve">Chronotimer 1009 Test Plan</t>
   </si>
@@ -136,12 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">NUM command called after race finished with racers finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC02.02</t>
   </si>
 </sst>
 </file>
@@ -370,7 +363,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,71 +578,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="7" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>